--- a/Thyriod_prediction/Accuracy Comparision.xlsx
+++ b/Thyriod_prediction/Accuracy Comparision.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a028684c382f99c4/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a028684c382f99c4/Desktop/DS_ML/Thyriod_prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB06D082-DB3D-4D7C-B3FF-A283D5FEEEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{BB06D082-DB3D-4D7C-B3FF-A283D5FEEEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEE491DD-EC47-4358-987A-17C58B4F901A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BA7BB0E-721A-4ED2-8B3C-FB6931036E5A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>Algorithm</t>
   </si>
@@ -54,16 +54,25 @@
     <t>Decision Tree</t>
   </si>
   <si>
-    <t>Anukul</t>
-  </si>
-  <si>
     <t>saima</t>
   </si>
   <si>
-    <t xml:space="preserve">Md Riajuliislam </t>
-  </si>
-  <si>
-    <t>Khalid salman</t>
+    <t>Hatso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khalid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riajuliislam </t>
+  </si>
+  <si>
+    <t>Kalpna</t>
+  </si>
+  <si>
+    <t>Lerina</t>
+  </si>
+  <si>
+    <t>Rajasekhar</t>
   </si>
 </sst>
 </file>
@@ -99,9 +108,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A62C614-3F0C-4611-817F-45D971BE412B}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,7 +456,7 @@
         <v>94.5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -459,7 +467,7 @@
         <v>99.6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -470,7 +478,7 @@
         <v>99.6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -481,7 +489,7 @@
         <v>89.5</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -492,7 +500,7 @@
         <v>94.7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -503,7 +511,7 @@
         <v>94.3</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -513,8 +521,8 @@
       <c r="B8">
         <v>99.3</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
+      <c r="C8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -524,8 +532,8 @@
       <c r="B9">
         <v>99.3</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
+      <c r="C9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -535,8 +543,8 @@
       <c r="B10">
         <v>99.3</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -546,8 +554,8 @@
       <c r="B11">
         <v>92.5</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
+      <c r="C11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -557,8 +565,8 @@
       <c r="B12">
         <v>91.2</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
+      <c r="C12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -568,8 +576,107 @@
       <c r="B13">
         <v>90.1</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>97.2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>99.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>99.3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Thyriod_prediction/Accuracy Comparision.xlsx
+++ b/Thyriod_prediction/Accuracy Comparision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a028684c382f99c4/Desktop/DS_ML/Thyriod_prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{BB06D082-DB3D-4D7C-B3FF-A283D5FEEEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEE491DD-EC47-4358-987A-17C58B4F901A}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{BB06D082-DB3D-4D7C-B3FF-A283D5FEEEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07209355-A1FB-47E7-AC8D-C91252AD4641}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BA7BB0E-721A-4ED2-8B3C-FB6931036E5A}"/>
   </bookViews>
@@ -42,24 +42,9 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>model creator</t>
-  </si>
-  <si>
     <t>SVM</t>
   </si>
   <si>
-    <t>Random Forest</t>
-  </si>
-  <si>
-    <t>Decision Tree</t>
-  </si>
-  <si>
-    <t>saima</t>
-  </si>
-  <si>
-    <t>Hatso</t>
-  </si>
-  <si>
     <t xml:space="preserve">Khalid </t>
   </si>
   <si>
@@ -73,6 +58,21 @@
   </si>
   <si>
     <t>Rajasekhar</t>
+  </si>
+  <si>
+    <t>RFC</t>
+  </si>
+  <si>
+    <t>DTC</t>
+  </si>
+  <si>
+    <t>Proposed-HATSO</t>
+  </si>
+  <si>
+    <t>Saima</t>
+  </si>
+  <si>
+    <t>Technique</t>
   </si>
 </sst>
 </file>
@@ -125,6 +125,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,7 +431,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,238 +449,238 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>94.5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>99.6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>99.6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>89.5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>94.7</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>94.3</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>99.3</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>99.3</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>99.3</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>92.5</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>91.2</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>90.1</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>97.2</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>99.5</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>99.3</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
